--- a/Test Cases/Prapancha/Test Case- EMR OP_Reviewed.xlsx
+++ b/Test Cases/Prapancha/Test Case- EMR OP_Reviewed.xlsx
@@ -3691,9 +3691,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
@@ -3752,16 +3752,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3781,29 +3789,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -3811,28 +3796,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -3847,11 +3819,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3863,25 +3880,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3939,7 +3939,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3963,19 +3993,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3987,7 +4029,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4005,61 +4095,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4071,43 +4107,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4145,6 +4145,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4175,33 +4184,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -4219,11 +4201,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4242,16 +4222,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4263,130 +4263,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4809,9 +4809,9 @@
   <dimension ref="A1:R748"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A740" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A755" sqref="A755"/>
+      <selection pane="bottomLeft" activeCell="G215" sqref="G215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -6659,7 +6659,7 @@
       <c r="K118" s="17"/>
     </row>
     <row r="119" ht="60" spans="1:11">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="20" t="s">
         <v>259</v>
       </c>
       <c r="B119" s="4" t="s">
@@ -6743,7 +6743,7 @@
       <c r="K122" s="17"/>
     </row>
     <row r="123" ht="30" customHeight="1" spans="1:11">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="20" t="s">
         <v>270</v>
       </c>
       <c r="B123" s="4" t="s">
@@ -6785,7 +6785,7 @@
       <c r="K124" s="17"/>
     </row>
     <row r="125" ht="60" spans="1:11">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="20" t="s">
         <v>274</v>
       </c>
       <c r="B125" s="4" t="s">
@@ -10574,7 +10574,7 @@
       <c r="K358" s="17"/>
     </row>
     <row r="359" ht="63.75" customHeight="1" spans="1:11">
-      <c r="A359" s="3" t="s">
+      <c r="A359" s="20" t="s">
         <v>659</v>
       </c>
       <c r="B359" s="4" t="s">
@@ -10676,7 +10676,7 @@
       <c r="K364" s="17"/>
     </row>
     <row r="365" ht="60" spans="1:11">
-      <c r="A365" s="3" t="s">
+      <c r="A365" s="20" t="s">
         <v>670</v>
       </c>
       <c r="B365" s="4" t="s">
@@ -10778,7 +10778,7 @@
       <c r="K370" s="17"/>
     </row>
     <row r="371" ht="60" spans="1:11">
-      <c r="A371" s="3" t="s">
+      <c r="A371" s="20" t="s">
         <v>674</v>
       </c>
       <c r="B371" s="4" t="s">
@@ -10880,7 +10880,7 @@
       <c r="K376" s="17"/>
     </row>
     <row r="377" ht="60" spans="1:11">
-      <c r="A377" s="3" t="s">
+      <c r="A377" s="20" t="s">
         <v>678</v>
       </c>
       <c r="B377" s="4" t="s">
@@ -16492,20 +16492,20 @@
     <mergeCell ref="D56:D70"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J302">
-      <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B70 B72:B140 B142:B684 B686:B715 B716:B1048576">
+      <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR OP, EMR IP, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C715 C752:C1048576">
+      <formula1>"Anjana, Bharath, Feby, Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Salini, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C716:C751">
       <formula1>"Bharath, Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B70 B72:B140 B142:B684 B686:B715 B716:B1048576">
-      <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR OP, EMR IP, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J302">
+      <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J303:J522">
       <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C715 C752:C1048576">
-      <formula1>"Anjana, Bharath, Feby, Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Salini, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K570">
       <formula1>"Pass, Fail, Blocked"</formula1>

--- a/Test Cases/Prapancha/Test Case- EMR OP_Reviewed.xlsx
+++ b/Test Cases/Prapancha/Test Case- EMR OP_Reviewed.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="1137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="1198">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -3737,17 +3737,209 @@
   <si>
     <t>EQ1-I134</t>
   </si>
+  <si>
+    <t>Moses</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0148</t>
+  </si>
+  <si>
+    <t>Login to the URL</t>
+  </si>
+  <si>
+    <t>Homepage should be displayed</t>
+  </si>
+  <si>
+    <t>http://mediwarecloud.com/mediwareqc/</t>
+  </si>
+  <si>
+    <t>Enter the Credentials and click on login</t>
+  </si>
+  <si>
+    <t>User should be able to login to the application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username: dsoft
+Password: </t>
+  </si>
+  <si>
+    <t>Click on the Application Selector</t>
+  </si>
+  <si>
+    <t>Select Application pop-up should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the Patient Information </t>
+  </si>
+  <si>
+    <t>Patient Information tab should be displayed</t>
+  </si>
+  <si>
+    <t>Test case to verify the Patient Information Section in Patient OP consultation</t>
+  </si>
+  <si>
+    <t>User should be navigate to the patient OP  Consultation page</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teset case to verify the Contents in Patient Information is properly working </t>
+  </si>
+  <si>
+    <t>Check whether the information in the tab is corespond to the patient</t>
+  </si>
+  <si>
+    <t>Details should be same</t>
+  </si>
+  <si>
+    <t>Click on the Patient Information button</t>
+  </si>
+  <si>
+    <t>User should be click on the button and the information regarding to the patient should be displayed in a page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the Add Remarks button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be click ont button and a field should be dispalyed to enter the remarks </t>
+  </si>
+  <si>
+    <t>Enter the Remarks in the displayed field and click on save button</t>
+  </si>
+  <si>
+    <t>User should be enter the data in the firld and the data should be saved</t>
+  </si>
+  <si>
+    <t>Click on the Patient message button</t>
+  </si>
+  <si>
+    <t>User should be click on the buttton and a new page should be displayed for send the message</t>
+  </si>
+  <si>
+    <t>Enter the message to be sen in the field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able enter the message </t>
+  </si>
+  <si>
+    <t>Select the priority of the message from the list</t>
+  </si>
+  <si>
+    <t>User should be able to select the detsil from the list</t>
+  </si>
+  <si>
+    <t>Click on the send button</t>
+  </si>
+  <si>
+    <t>The entered message should be send</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate to the EMR &gt;&gt;Out-patients tab&gt;&gt;
+Click on any patient under Out-Patient listed </t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0150</t>
+  </si>
+  <si>
+    <t>Test case to verify the Capture photo section in Patient Information is proper or not</t>
+  </si>
+  <si>
+    <t>Click on the Capture image button</t>
+  </si>
+  <si>
+    <t>User should be click on the button and a new window should be appear</t>
+  </si>
+  <si>
+    <t>Click on the Upload fron Computer button</t>
+  </si>
+  <si>
+    <t>User should be click on the button  and a new window should be appear</t>
+  </si>
+  <si>
+    <t>Select the image the system</t>
+  </si>
+  <si>
+    <t>User should be able to select the required image</t>
+  </si>
+  <si>
+    <t>Click on the Capture from Computer button</t>
+  </si>
+  <si>
+    <t>User should be  able to click the button and the new window should be display</t>
+  </si>
+  <si>
+    <t>Click on the Snap Photo button</t>
+  </si>
+  <si>
+    <t>The image should be taken</t>
+  </si>
+  <si>
+    <t>Select the image size and width and click on the crop button</t>
+  </si>
+  <si>
+    <t>The  image should be resized</t>
+  </si>
+  <si>
+    <t>Click on the save photo button</t>
+  </si>
+  <si>
+    <t>The image should be saved as the patients image</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test case to verify the  button and fields  in Patient Information is properly working </t>
+  </si>
+  <si>
+    <t>Select the Expected Discharge date from the list by click on it</t>
+  </si>
+  <si>
+    <t>User should be able to select the date</t>
+  </si>
+  <si>
+    <t>Click on the Medical record button</t>
+  </si>
+  <si>
+    <t>User should be click on the button and Medical records should be appear</t>
+  </si>
+  <si>
+    <t>Click on the Patient Tracker button</t>
+  </si>
+  <si>
+    <t>User should be click on the button and and Patient record page should be display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the close button </t>
+  </si>
+  <si>
+    <t>The patient page should be closed</t>
+  </si>
+  <si>
+    <t>MED_EMR OP_TC_0152</t>
+  </si>
+  <si>
+    <t>Test case to verify the</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3810,8 +4002,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3860,6 +4080,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -3896,13 +4122,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3917,22 +4143,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3941,16 +4167,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3965,10 +4191,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3977,7 +4203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3990,18 +4216,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4276,16 +4525,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R748"/>
+  <dimension ref="A1:R805"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A733" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I736" sqref="I736"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A787" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D797" sqref="D797"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="30.85546875" style="5" customWidth="1"/>
@@ -4355,7 +4604,7 @@
       <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="35" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="9">
@@ -4375,7 +4624,7 @@
       </c>
       <c r="O2" s="17">
         <f>COUNTA(A:A)-1</f>
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q2" s="20" t="s">
         <v>20</v>
@@ -4389,7 +4638,7 @@
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="33"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="9">
         <v>2</v>
       </c>
@@ -4425,7 +4674,7 @@
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="33"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="9">
         <v>3</v>
       </c>
@@ -4455,7 +4704,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="30">
-      <c r="D5" s="33"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="9">
         <v>4</v>
       </c>
@@ -4475,7 +4724,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="210">
-      <c r="D6" s="33"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="9">
         <v>5</v>
       </c>
@@ -4488,7 +4737,7 @@
       <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:18" ht="225">
-      <c r="D7" s="33"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="9">
         <v>6</v>
       </c>
@@ -4501,7 +4750,7 @@
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1">
-      <c r="D8" s="33"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="9">
         <v>7</v>
       </c>
@@ -4514,7 +4763,7 @@
       <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:18" ht="30">
-      <c r="D9" s="33"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="9">
         <v>8</v>
       </c>
@@ -4527,7 +4776,7 @@
       <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:18" ht="270">
-      <c r="D10" s="33"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="5">
         <v>9</v>
       </c>
@@ -4549,7 +4798,7 @@
       <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="36" t="s">
         <v>44</v>
       </c>
       <c r="E11" s="9">
@@ -4561,7 +4810,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="D12" s="34"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="9">
         <v>2</v>
       </c>
@@ -4574,7 +4823,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:18" ht="45" customHeight="1">
-      <c r="D13" s="34"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="9">
         <v>3</v>
       </c>
@@ -4587,7 +4836,7 @@
       <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:18" ht="30">
-      <c r="D14" s="34"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="9">
         <v>4</v>
       </c>
@@ -4600,7 +4849,7 @@
       <c r="K14" s="15"/>
     </row>
     <row r="15" spans="1:18" ht="30">
-      <c r="D15" s="34"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="9">
         <v>5</v>
       </c>
@@ -4613,7 +4862,7 @@
       <c r="K15" s="15"/>
     </row>
     <row r="16" spans="1:18" ht="94.5">
-      <c r="D16" s="34"/>
+      <c r="D16" s="36"/>
       <c r="E16" s="9">
         <v>6</v>
       </c>
@@ -4626,7 +4875,7 @@
       <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11" ht="45">
-      <c r="D17" s="34"/>
+      <c r="D17" s="36"/>
       <c r="E17" s="9">
         <v>7</v>
       </c>
@@ -4639,7 +4888,7 @@
       <c r="K17" s="15"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1">
-      <c r="D18" s="34"/>
+      <c r="D18" s="36"/>
       <c r="E18" s="9">
         <v>8</v>
       </c>
@@ -4652,7 +4901,7 @@
       <c r="K18" s="15"/>
     </row>
     <row r="19" spans="1:11" ht="30">
-      <c r="D19" s="34"/>
+      <c r="D19" s="36"/>
       <c r="E19" s="9">
         <v>9</v>
       </c>
@@ -4665,7 +4914,7 @@
       <c r="K19" s="15"/>
     </row>
     <row r="20" spans="1:11" ht="30">
-      <c r="D20" s="34"/>
+      <c r="D20" s="36"/>
       <c r="E20" s="9">
         <v>10</v>
       </c>
@@ -4678,7 +4927,7 @@
       <c r="K20" s="15"/>
     </row>
     <row r="21" spans="1:11" ht="30">
-      <c r="D21" s="34"/>
+      <c r="D21" s="36"/>
       <c r="E21" s="9">
         <v>11</v>
       </c>
@@ -4691,7 +4940,7 @@
       <c r="K21" s="15"/>
     </row>
     <row r="22" spans="1:11" ht="30">
-      <c r="D22" s="34"/>
+      <c r="D22" s="36"/>
       <c r="E22" s="9">
         <v>12</v>
       </c>
@@ -4704,7 +4953,7 @@
       <c r="K22" s="15"/>
     </row>
     <row r="23" spans="1:11" ht="45" customHeight="1">
-      <c r="D23" s="34"/>
+      <c r="D23" s="36"/>
       <c r="E23" s="9">
         <v>13</v>
       </c>
@@ -4717,7 +4966,7 @@
       <c r="K23" s="15"/>
     </row>
     <row r="24" spans="1:11" ht="150">
-      <c r="D24" s="34"/>
+      <c r="D24" s="36"/>
       <c r="E24" s="9">
         <v>14</v>
       </c>
@@ -4739,7 +4988,7 @@
       <c r="C25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="34" t="s">
         <v>70</v>
       </c>
       <c r="E25" s="9">
@@ -4751,7 +5000,7 @@
       <c r="K25" s="15"/>
     </row>
     <row r="26" spans="1:11" ht="30">
-      <c r="D26" s="33"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="9">
         <v>2</v>
       </c>
@@ -4767,7 +5016,7 @@
       <c r="K26" s="15"/>
     </row>
     <row r="27" spans="1:11" ht="30">
-      <c r="D27" s="33"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="9">
         <v>3</v>
       </c>
@@ -4780,7 +5029,7 @@
       <c r="K27" s="15"/>
     </row>
     <row r="28" spans="1:11" ht="60" customHeight="1">
-      <c r="D28" s="33"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="9">
         <v>4</v>
       </c>
@@ -4793,7 +5042,7 @@
       <c r="K28" s="15"/>
     </row>
     <row r="29" spans="1:11" ht="135">
-      <c r="D29" s="33"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="9">
         <v>5</v>
       </c>
@@ -4815,7 +5064,7 @@
       <c r="C30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="34" t="s">
         <v>80</v>
       </c>
       <c r="E30" s="5">
@@ -4827,7 +5076,7 @@
       <c r="K30" s="15"/>
     </row>
     <row r="31" spans="1:11" ht="30">
-      <c r="D31" s="33"/>
+      <c r="D31" s="34"/>
       <c r="E31" s="5">
         <v>2</v>
       </c>
@@ -4843,7 +5092,7 @@
       <c r="K31" s="15"/>
     </row>
     <row r="32" spans="1:11" ht="30">
-      <c r="D32" s="33"/>
+      <c r="D32" s="34"/>
       <c r="E32" s="5">
         <v>3</v>
       </c>
@@ -4856,7 +5105,7 @@
       <c r="K32" s="15"/>
     </row>
     <row r="33" spans="4:11" ht="60" customHeight="1">
-      <c r="D33" s="33"/>
+      <c r="D33" s="34"/>
       <c r="E33" s="5">
         <v>4</v>
       </c>
@@ -4869,7 +5118,7 @@
       <c r="K33" s="15"/>
     </row>
     <row r="34" spans="4:11" ht="135">
-      <c r="D34" s="33"/>
+      <c r="D34" s="34"/>
       <c r="E34" s="5">
         <v>5</v>
       </c>
@@ -4882,7 +5131,7 @@
       <c r="K34" s="15"/>
     </row>
     <row r="35" spans="4:11" ht="30">
-      <c r="D35" s="33"/>
+      <c r="D35" s="34"/>
       <c r="E35" s="5">
         <v>6</v>
       </c>
@@ -4895,7 +5144,7 @@
       <c r="K35" s="15"/>
     </row>
     <row r="36" spans="4:11" ht="30">
-      <c r="D36" s="33"/>
+      <c r="D36" s="34"/>
       <c r="E36" s="5">
         <v>7</v>
       </c>
@@ -4908,7 +5157,7 @@
       <c r="K36" s="15"/>
     </row>
     <row r="37" spans="4:11" ht="30">
-      <c r="D37" s="33"/>
+      <c r="D37" s="34"/>
       <c r="E37" s="5">
         <v>8</v>
       </c>
@@ -4921,7 +5170,7 @@
       <c r="K37" s="15"/>
     </row>
     <row r="38" spans="4:11" ht="30">
-      <c r="D38" s="33"/>
+      <c r="D38" s="34"/>
       <c r="E38" s="5">
         <v>9</v>
       </c>
@@ -4934,7 +5183,7 @@
       <c r="K38" s="15"/>
     </row>
     <row r="39" spans="4:11" ht="135">
-      <c r="D39" s="33"/>
+      <c r="D39" s="34"/>
       <c r="E39" s="5">
         <v>10</v>
       </c>
@@ -4947,7 +5196,7 @@
       <c r="K39" s="15"/>
     </row>
     <row r="40" spans="4:11" ht="45" customHeight="1">
-      <c r="D40" s="33"/>
+      <c r="D40" s="34"/>
       <c r="E40" s="5">
         <v>11</v>
       </c>
@@ -4960,7 +5209,7 @@
       <c r="K40" s="15"/>
     </row>
     <row r="41" spans="4:11">
-      <c r="D41" s="33"/>
+      <c r="D41" s="34"/>
       <c r="E41" s="5">
         <v>12</v>
       </c>
@@ -4973,7 +5222,7 @@
       <c r="K41" s="15"/>
     </row>
     <row r="42" spans="4:11">
-      <c r="D42" s="33"/>
+      <c r="D42" s="34"/>
       <c r="E42" s="5">
         <v>13</v>
       </c>
@@ -4986,7 +5235,7 @@
       <c r="K42" s="15"/>
     </row>
     <row r="43" spans="4:11">
-      <c r="D43" s="33"/>
+      <c r="D43" s="34"/>
       <c r="E43" s="5">
         <v>14</v>
       </c>
@@ -4999,7 +5248,7 @@
       <c r="K43" s="15"/>
     </row>
     <row r="44" spans="4:11">
-      <c r="D44" s="33"/>
+      <c r="D44" s="34"/>
       <c r="E44" s="5">
         <v>15</v>
       </c>
@@ -5012,7 +5261,7 @@
       <c r="K44" s="15"/>
     </row>
     <row r="45" spans="4:11" ht="30">
-      <c r="D45" s="33"/>
+      <c r="D45" s="34"/>
       <c r="E45" s="5">
         <v>16</v>
       </c>
@@ -5025,7 +5274,7 @@
       <c r="K45" s="15"/>
     </row>
     <row r="46" spans="4:11" ht="45" customHeight="1">
-      <c r="D46" s="33"/>
+      <c r="D46" s="34"/>
       <c r="E46" s="5">
         <v>17</v>
       </c>
@@ -5038,7 +5287,7 @@
       <c r="K46" s="15"/>
     </row>
     <row r="47" spans="4:11" ht="30">
-      <c r="D47" s="33"/>
+      <c r="D47" s="34"/>
       <c r="E47" s="5">
         <v>18</v>
       </c>
@@ -5051,7 +5300,7 @@
       <c r="K47" s="15"/>
     </row>
     <row r="48" spans="4:11">
-      <c r="D48" s="33"/>
+      <c r="D48" s="34"/>
       <c r="E48" s="5">
         <v>19</v>
       </c>
@@ -5073,7 +5322,7 @@
       <c r="C49" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="34" t="s">
+      <c r="D49" s="36" t="s">
         <v>110</v>
       </c>
       <c r="E49" s="9">
@@ -5085,7 +5334,7 @@
       <c r="K49" s="15"/>
     </row>
     <row r="50" spans="1:11" ht="30">
-      <c r="D50" s="34"/>
+      <c r="D50" s="36"/>
       <c r="E50" s="9">
         <v>2</v>
       </c>
@@ -5101,7 +5350,7 @@
       <c r="K50" s="15"/>
     </row>
     <row r="51" spans="1:11" ht="30">
-      <c r="D51" s="34"/>
+      <c r="D51" s="36"/>
       <c r="E51" s="9">
         <v>3</v>
       </c>
@@ -5114,7 +5363,7 @@
       <c r="K51" s="15"/>
     </row>
     <row r="52" spans="1:11" ht="180">
-      <c r="D52" s="34"/>
+      <c r="D52" s="36"/>
       <c r="E52" s="9">
         <v>4</v>
       </c>
@@ -5127,7 +5376,7 @@
       <c r="K52" s="15"/>
     </row>
     <row r="53" spans="1:11" ht="60">
-      <c r="D53" s="34"/>
+      <c r="D53" s="36"/>
       <c r="E53" s="9">
         <v>5</v>
       </c>
@@ -5140,7 +5389,7 @@
       <c r="K53" s="15"/>
     </row>
     <row r="54" spans="1:11" ht="45" customHeight="1">
-      <c r="D54" s="34"/>
+      <c r="D54" s="36"/>
       <c r="E54" s="9">
         <v>6</v>
       </c>
@@ -5153,7 +5402,7 @@
       <c r="K54" s="15"/>
     </row>
     <row r="55" spans="1:11" ht="45">
-      <c r="D55" s="34"/>
+      <c r="D55" s="36"/>
       <c r="E55" s="9">
         <v>7</v>
       </c>
@@ -5175,7 +5424,7 @@
       <c r="C56" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D56" s="33" t="s">
+      <c r="D56" s="34" t="s">
         <v>122</v>
       </c>
       <c r="E56" s="9">
@@ -5190,7 +5439,7 @@
       <c r="K56" s="15"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="D57" s="33"/>
+      <c r="D57" s="34"/>
       <c r="E57" s="9">
         <v>2</v>
       </c>
@@ -5203,7 +5452,7 @@
       <c r="K57" s="15"/>
     </row>
     <row r="58" spans="1:11" ht="120">
-      <c r="D58" s="33"/>
+      <c r="D58" s="34"/>
       <c r="E58" s="9">
         <v>3</v>
       </c>
@@ -5216,7 +5465,7 @@
       <c r="K58" s="15"/>
     </row>
     <row r="59" spans="1:11" ht="45" customHeight="1">
-      <c r="D59" s="33"/>
+      <c r="D59" s="34"/>
       <c r="E59" s="9">
         <v>4</v>
       </c>
@@ -5229,7 +5478,7 @@
       <c r="K59" s="15"/>
     </row>
     <row r="60" spans="1:11" ht="60">
-      <c r="D60" s="33"/>
+      <c r="D60" s="34"/>
       <c r="E60" s="9">
         <v>5</v>
       </c>
@@ -5245,7 +5494,7 @@
       <c r="K60" s="15"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="D61" s="33"/>
+      <c r="D61" s="34"/>
       <c r="E61" s="9">
         <v>6</v>
       </c>
@@ -5258,7 +5507,7 @@
       <c r="K61" s="15"/>
     </row>
     <row r="62" spans="1:11" ht="90">
-      <c r="D62" s="33"/>
+      <c r="D62" s="34"/>
       <c r="E62" s="9">
         <v>7</v>
       </c>
@@ -5271,7 +5520,7 @@
       <c r="K62" s="15"/>
     </row>
     <row r="63" spans="1:11" ht="126" customHeight="1">
-      <c r="D63" s="33"/>
+      <c r="D63" s="34"/>
       <c r="E63" s="9">
         <v>8</v>
       </c>
@@ -5284,7 +5533,7 @@
       <c r="K63" s="15"/>
     </row>
     <row r="64" spans="1:11" ht="30">
-      <c r="D64" s="33"/>
+      <c r="D64" s="34"/>
       <c r="E64" s="9">
         <v>9</v>
       </c>
@@ -5297,7 +5546,7 @@
       <c r="K64" s="15"/>
     </row>
     <row r="65" spans="1:11" ht="30">
-      <c r="D65" s="33"/>
+      <c r="D65" s="34"/>
       <c r="E65" s="9">
         <v>10</v>
       </c>
@@ -5310,7 +5559,7 @@
       <c r="K65" s="15"/>
     </row>
     <row r="66" spans="1:11" ht="120">
-      <c r="D66" s="33"/>
+      <c r="D66" s="34"/>
       <c r="E66" s="9">
         <v>11</v>
       </c>
@@ -5323,7 +5572,7 @@
       <c r="K66" s="15"/>
     </row>
     <row r="67" spans="1:11" ht="99.75" customHeight="1">
-      <c r="D67" s="33"/>
+      <c r="D67" s="34"/>
       <c r="E67" s="9">
         <v>12</v>
       </c>
@@ -5336,7 +5585,7 @@
       <c r="K67" s="15"/>
     </row>
     <row r="68" spans="1:11" ht="105">
-      <c r="D68" s="33"/>
+      <c r="D68" s="34"/>
       <c r="E68" s="9">
         <v>13</v>
       </c>
@@ -5349,7 +5598,7 @@
       <c r="K68" s="15"/>
     </row>
     <row r="69" spans="1:11" ht="60">
-      <c r="D69" s="33"/>
+      <c r="D69" s="34"/>
       <c r="E69" s="9">
         <v>14</v>
       </c>
@@ -5362,7 +5611,7 @@
       <c r="K69" s="15"/>
     </row>
     <row r="70" spans="1:11" ht="90">
-      <c r="D70" s="33"/>
+      <c r="D70" s="34"/>
       <c r="E70" s="9">
         <v>15</v>
       </c>
@@ -6251,7 +6500,7 @@
       <c r="G124" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="I124" s="35" t="s">
+      <c r="I124" s="33" t="s">
         <v>1120</v>
       </c>
       <c r="K124" s="15"/>
@@ -6671,7 +6920,7 @@
       <c r="H149" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="I149" s="35" t="s">
+      <c r="I149" s="33" t="s">
         <v>1126</v>
       </c>
       <c r="K149" s="15"/>
@@ -6837,7 +7086,7 @@
       <c r="H158" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="I158" s="35" t="s">
+      <c r="I158" s="33" t="s">
         <v>1125</v>
       </c>
       <c r="K158" s="15"/>
@@ -7317,7 +7566,7 @@
       <c r="G187" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="I187" s="35" t="s">
+      <c r="I187" s="33" t="s">
         <v>1129</v>
       </c>
       <c r="K187" s="15"/>
@@ -7986,7 +8235,7 @@
       <c r="F228" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="I228" s="35" t="s">
+      <c r="I228" s="33" t="s">
         <v>1130</v>
       </c>
       <c r="K228" s="15"/>
@@ -9413,7 +9662,7 @@
       <c r="F320" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="I320" s="35" t="s">
+      <c r="I320" s="33" t="s">
         <v>1123</v>
       </c>
       <c r="J320" s="15"/>
@@ -10085,7 +10334,7 @@
       <c r="H359" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="I359" s="35" t="s">
+      <c r="I359" s="33" t="s">
         <v>1131</v>
       </c>
       <c r="J359" s="15"/>
@@ -10190,7 +10439,7 @@
       <c r="H365" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="I365" s="35" t="s">
+      <c r="I365" s="33" t="s">
         <v>1132</v>
       </c>
       <c r="J365" s="15"/>
@@ -10295,7 +10544,7 @@
       <c r="H371" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="I371" s="35" t="s">
+      <c r="I371" s="33" t="s">
         <v>1133</v>
       </c>
       <c r="J371" s="15"/>
@@ -10398,7 +10647,7 @@
         <v>626</v>
       </c>
       <c r="H377" s="26"/>
-      <c r="I377" s="35" t="s">
+      <c r="I377" s="33" t="s">
         <v>1134</v>
       </c>
       <c r="J377" s="15"/>
@@ -11812,7 +12061,7 @@
       <c r="H459" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="I459" s="35" t="s">
+      <c r="I459" s="33" t="s">
         <v>1122</v>
       </c>
       <c r="J459" s="15"/>
@@ -11962,7 +12211,7 @@
       <c r="G468" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="I468" s="35" t="s">
+      <c r="I468" s="33" t="s">
         <v>1124</v>
       </c>
       <c r="J468" s="15"/>
@@ -12564,7 +12813,7 @@
       <c r="H506" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="I506" s="35" t="s">
+      <c r="I506" s="33" t="s">
         <v>1135</v>
       </c>
       <c r="J506" s="15"/>
@@ -15312,7 +15561,7 @@
       <c r="H700" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="I700" s="35" t="s">
+      <c r="I700" s="33" t="s">
         <v>1121</v>
       </c>
     </row>
@@ -15830,7 +16079,7 @@
       <c r="G736" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="I736" s="35" t="s">
+      <c r="I736" s="33" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -15870,7 +16119,7 @@
       <c r="H738" s="3" t="s">
         <v>1098</v>
       </c>
-      <c r="I738" s="35" t="s">
+      <c r="I738" s="33" t="s">
         <v>1128</v>
       </c>
     </row>
@@ -15937,7 +16186,7 @@
       <c r="G743" s="3" t="s">
         <v>1111</v>
       </c>
-      <c r="I743" s="35" t="s">
+      <c r="I743" s="33" t="s">
         <v>1127</v>
       </c>
     </row>
@@ -16000,8 +16249,626 @@
         <v>1119</v>
       </c>
     </row>
+    <row r="749" spans="1:9">
+      <c r="A749" s="2"/>
+      <c r="B749" s="27"/>
+      <c r="C749" s="27"/>
+      <c r="D749" s="28"/>
+      <c r="E749" s="28"/>
+      <c r="F749" s="2"/>
+      <c r="G749" s="2"/>
+      <c r="H749" s="2"/>
+      <c r="I749" s="2"/>
+    </row>
+    <row r="751" spans="1:9" ht="30">
+      <c r="A751" s="37" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B751" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C751" s="32" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D751" s="34" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E751" s="38">
+        <v>1</v>
+      </c>
+      <c r="F751" s="38" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G751" s="39" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H751" s="40" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="752" spans="1:9" ht="30">
+      <c r="D752" s="34"/>
+      <c r="E752" s="38">
+        <v>2</v>
+      </c>
+      <c r="F752" s="38" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G752" s="38" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H752" s="41" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="753" spans="1:8">
+      <c r="D753" s="34"/>
+      <c r="E753" s="38">
+        <v>3</v>
+      </c>
+      <c r="F753" s="38" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G753" s="38" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H753" s="40"/>
+    </row>
+    <row r="754" spans="1:8" ht="30">
+      <c r="D754" s="34"/>
+      <c r="E754" s="38">
+        <v>4</v>
+      </c>
+      <c r="F754" s="38" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G754" s="38" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="755" spans="1:8">
+      <c r="D755" s="34"/>
+      <c r="E755" s="38">
+        <v>5</v>
+      </c>
+      <c r="F755" s="38" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G755" s="38" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H755" s="40"/>
+    </row>
+    <row r="757" spans="1:8" ht="30">
+      <c r="A757" s="37" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B757" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C757" s="32" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D757" s="34" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E757" s="38">
+        <v>1</v>
+      </c>
+      <c r="F757" s="38" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G757" s="39" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H757" s="40" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="758" spans="1:8" ht="30">
+      <c r="D758" s="34"/>
+      <c r="E758" s="38">
+        <v>2</v>
+      </c>
+      <c r="F758" s="38" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G758" s="38" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H758" s="41" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="759" spans="1:8">
+      <c r="D759" s="34"/>
+      <c r="E759" s="38">
+        <v>3</v>
+      </c>
+      <c r="F759" s="38" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G759" s="38" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H759" s="40"/>
+    </row>
+    <row r="760" spans="1:8" ht="30">
+      <c r="D760" s="34"/>
+      <c r="E760" s="38">
+        <v>4</v>
+      </c>
+      <c r="F760" s="38" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G760" s="38" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="761" spans="1:8">
+      <c r="D761" s="34"/>
+      <c r="E761" s="38">
+        <v>5</v>
+      </c>
+      <c r="F761" s="38" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G761" s="38" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H761" s="40"/>
+    </row>
+    <row r="762" spans="1:8" ht="30">
+      <c r="D762" s="34"/>
+      <c r="E762" s="38">
+        <v>6</v>
+      </c>
+      <c r="F762" s="38" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G762" s="38" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="763" spans="1:8" ht="30">
+      <c r="D763" s="34"/>
+      <c r="E763" s="38">
+        <v>7</v>
+      </c>
+      <c r="F763" s="38" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G763" s="38" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H763" s="40"/>
+    </row>
+    <row r="764" spans="1:8" ht="30">
+      <c r="D764" s="34"/>
+      <c r="E764" s="38">
+        <v>8</v>
+      </c>
+      <c r="F764" s="38" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G764" s="38" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="765" spans="1:8" ht="30">
+      <c r="D765" s="34"/>
+      <c r="E765" s="38">
+        <v>9</v>
+      </c>
+      <c r="F765" s="38" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G765" s="38" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H765" s="40"/>
+    </row>
+    <row r="766" spans="1:8" ht="30">
+      <c r="D766" s="34"/>
+      <c r="E766" s="38">
+        <v>10</v>
+      </c>
+      <c r="F766" s="38" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G766" s="38" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="767" spans="1:8">
+      <c r="D767" s="34"/>
+      <c r="E767" s="38">
+        <v>11</v>
+      </c>
+      <c r="F767" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G767" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="H767" s="40"/>
+    </row>
+    <row r="768" spans="1:8">
+      <c r="D768" s="34"/>
+      <c r="E768" s="38">
+        <v>12</v>
+      </c>
+      <c r="F768" s="38" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G768" s="38" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="769" spans="1:8">
+      <c r="D769" s="34"/>
+      <c r="E769" s="38">
+        <v>13</v>
+      </c>
+      <c r="F769" s="38" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G769" s="38" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H769" s="40"/>
+    </row>
+    <row r="771" spans="1:8" ht="30">
+      <c r="A771" s="37" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B771" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C771" s="32" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D771" s="34" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E771" s="38">
+        <v>1</v>
+      </c>
+      <c r="F771" s="38" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G771" s="39" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H771" s="40" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="772" spans="1:8" ht="30">
+      <c r="D772" s="34"/>
+      <c r="E772" s="38">
+        <v>2</v>
+      </c>
+      <c r="F772" s="38" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G772" s="38" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H772" s="41" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="773" spans="1:8">
+      <c r="D773" s="34"/>
+      <c r="E773" s="38">
+        <v>3</v>
+      </c>
+      <c r="F773" s="38" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G773" s="38" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H773" s="40"/>
+    </row>
+    <row r="774" spans="1:8" ht="30">
+      <c r="D774" s="34"/>
+      <c r="E774" s="38">
+        <v>4</v>
+      </c>
+      <c r="F774" s="38" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G774" s="38" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="775" spans="1:8">
+      <c r="D775" s="34"/>
+      <c r="E775" s="38">
+        <v>5</v>
+      </c>
+      <c r="F775" s="38" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G775" s="38" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H775" s="40"/>
+    </row>
+    <row r="776" spans="1:8" ht="30">
+      <c r="D776" s="34"/>
+      <c r="E776" s="38">
+        <v>6</v>
+      </c>
+      <c r="F776" s="38" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G776" s="38" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H776" s="40"/>
+    </row>
+    <row r="777" spans="1:8" ht="30">
+      <c r="D777" s="34"/>
+      <c r="E777" s="38">
+        <v>7</v>
+      </c>
+      <c r="F777" s="38" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G777" s="38" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H777" s="40"/>
+    </row>
+    <row r="778" spans="1:8">
+      <c r="D778" s="34"/>
+      <c r="E778" s="38">
+        <v>8</v>
+      </c>
+      <c r="F778" s="38" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G778" s="38" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H778" s="40"/>
+    </row>
+    <row r="779" spans="1:8" ht="30">
+      <c r="D779" s="34"/>
+      <c r="E779" s="38">
+        <v>9</v>
+      </c>
+      <c r="F779" s="38" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G779" s="38" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H779" s="40"/>
+    </row>
+    <row r="780" spans="1:8">
+      <c r="D780" s="34"/>
+      <c r="E780" s="38">
+        <v>10</v>
+      </c>
+      <c r="F780" s="38" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G780" s="38" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H780" s="40"/>
+    </row>
+    <row r="781" spans="1:8" ht="30">
+      <c r="D781" s="34"/>
+      <c r="E781" s="38">
+        <v>11</v>
+      </c>
+      <c r="F781" s="38" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G781" s="38" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H781" s="40"/>
+    </row>
+    <row r="782" spans="1:8">
+      <c r="D782" s="34"/>
+      <c r="E782" s="38">
+        <v>12</v>
+      </c>
+      <c r="F782" s="38" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G782" s="38" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="784" spans="1:8" ht="30">
+      <c r="A784" s="37" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B784" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C784" s="32" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D784" s="34" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E784" s="38">
+        <v>1</v>
+      </c>
+      <c r="F784" s="38" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G784" s="39" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H784" s="40" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="785" spans="1:8" ht="30">
+      <c r="D785" s="34"/>
+      <c r="E785" s="38">
+        <v>2</v>
+      </c>
+      <c r="F785" s="38" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G785" s="38" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H785" s="41" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="786" spans="1:8">
+      <c r="D786" s="34"/>
+      <c r="E786" s="38">
+        <v>3</v>
+      </c>
+      <c r="F786" s="38" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G786" s="38" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H786" s="40"/>
+    </row>
+    <row r="787" spans="1:8" ht="30">
+      <c r="D787" s="34"/>
+      <c r="E787" s="38">
+        <v>4</v>
+      </c>
+      <c r="F787" s="38" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G787" s="38" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="788" spans="1:8">
+      <c r="D788" s="34"/>
+      <c r="E788" s="38">
+        <v>5</v>
+      </c>
+      <c r="F788" s="38" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G788" s="38" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H788" s="40"/>
+    </row>
+    <row r="789" spans="1:8" ht="30">
+      <c r="D789" s="34"/>
+      <c r="E789" s="38">
+        <v>6</v>
+      </c>
+      <c r="F789" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G789" s="3" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="790" spans="1:8" ht="30">
+      <c r="D790" s="34"/>
+      <c r="E790" s="38">
+        <v>7</v>
+      </c>
+      <c r="F790" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G790" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H790" s="40"/>
+    </row>
+    <row r="791" spans="1:8" ht="30">
+      <c r="D791" s="34"/>
+      <c r="E791" s="38">
+        <v>8</v>
+      </c>
+      <c r="F791" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G791" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H791" s="40"/>
+    </row>
+    <row r="792" spans="1:8">
+      <c r="D792" s="34"/>
+      <c r="E792" s="42">
+        <v>9</v>
+      </c>
+      <c r="F792" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G792" s="3" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="794" spans="1:8" ht="30">
+      <c r="A794" s="37" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B794" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C794" s="32" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D794" s="43" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="795" spans="1:8">
+      <c r="D795" s="44"/>
+    </row>
+    <row r="796" spans="1:8">
+      <c r="D796" s="44"/>
+    </row>
+    <row r="797" spans="1:8">
+      <c r="D797" s="44"/>
+    </row>
+    <row r="798" spans="1:8">
+      <c r="D798" s="44"/>
+    </row>
+    <row r="799" spans="1:8">
+      <c r="D799" s="44"/>
+    </row>
+    <row r="800" spans="1:8">
+      <c r="D800" s="44"/>
+    </row>
+    <row r="801" spans="4:4">
+      <c r="D801" s="44"/>
+    </row>
+    <row r="802" spans="4:4">
+      <c r="D802" s="44"/>
+    </row>
+    <row r="803" spans="4:4">
+      <c r="D803" s="44"/>
+    </row>
+    <row r="804" spans="4:4">
+      <c r="D804"/>
+    </row>
+    <row r="805" spans="4:4">
+      <c r="D805" s="44"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
+    <mergeCell ref="D751:D755"/>
+    <mergeCell ref="D757:D769"/>
+    <mergeCell ref="D771:D782"/>
+    <mergeCell ref="D784:D792"/>
     <mergeCell ref="D56:D70"/>
     <mergeCell ref="D2:D10"/>
     <mergeCell ref="D11:D24"/>
@@ -16009,14 +16876,14 @@
     <mergeCell ref="D30:D48"/>
     <mergeCell ref="D49:D55"/>
   </mergeCells>
-  <dataValidations count="6">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B70 B72:B140 B142:B684 B686:B1048576">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR OP, EMR IP, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C715 C752:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C715 C752:C756 C758:C770 C772:C783 C785:C793 C795:C1048576">
       <formula1>"Anjana, Bharath, Feby, Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Salini, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C716:C751">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C716:C750">
       <formula1>"Bharath, Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J302">
@@ -16027,6 +16894,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K570">
       <formula1>"Pass, Fail, Blocked"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C751 C757 C771 C784 C794">
+      <formula1>"Bharath, Moses, Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -16157,9 +17027,13 @@
     <hyperlink ref="H719" r:id="rId125"/>
     <hyperlink ref="H724" r:id="rId126"/>
     <hyperlink ref="H728" r:id="rId127"/>
+    <hyperlink ref="H751" r:id="rId128"/>
+    <hyperlink ref="H757" r:id="rId129"/>
+    <hyperlink ref="H771" r:id="rId130"/>
+    <hyperlink ref="H784" r:id="rId131"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId128"/>
+  <pageSetup orientation="portrait" r:id="rId132"/>
 </worksheet>
 </file>
 
